--- a/lingvo2/data/seasons/seasons.xlsx
+++ b/lingvo2/data/seasons/seasons.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_SYNS_ORIGINAL\0SYNC\python_projects\sling\lingvo2\data\seasons\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{954B3DF4-E951-41AE-8ABB-38923AB77752}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="seasons" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -31,9 +25,6 @@
     <t>весна</t>
   </si>
   <si>
-    <t>it's spring in the forest</t>
-  </si>
-  <si>
     <t>spring recess</t>
   </si>
   <si>
@@ -46,9 +37,6 @@
     <t>лето</t>
   </si>
   <si>
-    <t>Hot Summer</t>
-  </si>
-  <si>
     <t>summer rain</t>
   </si>
   <si>
@@ -61,9 +49,6 @@
     <t>осень</t>
   </si>
   <si>
-    <t>autumn leaves yellow</t>
-  </si>
-  <si>
     <t>Golden autumn</t>
   </si>
   <si>
@@ -110,13 +95,22 @@
   </si>
   <si>
     <t>not a season</t>
+  </si>
+  <si>
+    <t>it's spring in the forest_это весна в лесу</t>
+  </si>
+  <si>
+    <t>Hot Summer_жаркой лето</t>
+  </si>
+  <si>
+    <t>autumn leaves yellow_осенью листья жёлтые</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,24 +609,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -714,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -766,7 +760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -960,21 +954,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="85.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,95 +984,95 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/lingvo2/data/seasons/seasons.xlsx
+++ b/lingvo2/data/seasons/seasons.xlsx
@@ -97,20 +97,20 @@
     <t>not a season</t>
   </si>
   <si>
-    <t>it's spring in the forest_это весна в лесу</t>
-  </si>
-  <si>
     <t>Hot Summer_жаркой лето</t>
   </si>
   <si>
     <t>autumn leaves yellow_осенью листья жёлтые</t>
+  </si>
+  <si>
+    <t>Want to learn how to use Python's most popular IDE Pycharm? In the free pdf guide "Getting the Hang of PyCharm" you'll learn all of the amazing features in PyCharm along with how to get started with data science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +262,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF444444"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -605,8 +612,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -954,7 +962,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -965,15 +973,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="85.140625" customWidth="1"/>
+    <col min="4" max="4" width="103.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="19.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,8 +992,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1001,7 +1010,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1018,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1077,5 +1086,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lingvo2/data/seasons/seasons.xlsx
+++ b/lingvo2/data/seasons/seasons.xlsx
@@ -103,7 +103,7 @@
     <t>autumn leaves yellow_осенью листья жёлтые</t>
   </si>
   <si>
-    <t>Want to learn how to use Python's most popular IDE Pycharm? In the free pdf guide "Getting the Hang of PyCharm" you'll learn all of the amazing features in PyCharm along with how to get started with data science</t>
+    <t>Yeah, these are a few more lines of code, but they're intended to be comprehensive. My first inclination would be to use the accepted answer, and if there were issues with it, I'd then look at my answer - as it's a little more complicated, and there's no ABC to help me get my interface right._Yeah, these are a few more lines of code, but they're intended to be comprehensive. My first inclination would be to use the accepted answer, and if there were issues with it, I'd then look at my answer - as it's a little more complicated, and there's no ABC to help me get my interface right.</t>
   </si>
 </sst>
 </file>
@@ -973,12 +973,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="103.5703125" customWidth="1"/>
+    <col min="4" max="4" width="163.7109375" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
